--- a/biology/Zoologie/Ditrysia/Ditrysia.xlsx
+++ b/biology/Zoologie/Ditrysia/Ditrysia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ditrysia sont un groupe naturel d'insectes appartenant à l'ordre des lépidoptères (papillons).
 Ils ont souvent été considérés comme un sous-ordre, avant que la classification phylogénétique ne mène à les définir comme un clade sans rang au sein du sous-ordre des Glossata et de l'infra-ordre des Heteroneura.
 Les Ditrysia sont les papillons chez lesquels les femelles possèdent deux orifices sexuels distincts, l'un servant à l'accouplement et l'autre à la ponte. Cela les distingue des Monotrysia, à l'orifice unique, qui englobent le reste des Heteroneura mais ne sont plus considérés comme un taxon valide.
-Les Ditrysia comprennent environ 98 % des espèces de lépidoptères connues, classées dans 110 familles et 29 super-familles. La classification des Ditrysia suivante est tirée d'une synthèse publiée en 2011[1] : 
+Les Ditrysia comprennent environ 98 % des espèces de lépidoptères connues, classées dans 110 familles et 29 super-familles. La classification des Ditrysia suivante est tirée d'une synthèse publiée en 2011 : 
 1 famille et 25 genres non classés
 super-famille des Tineoidea Latreille, 1810 (3 familles)
 super-famille des Gracillarioidea Stainton, 1854 (3 familles)
@@ -520,10 +532,10 @@
 super-famille des Bombycoidea Latreille, 1802 (10 familles)
 super-famille des Geometroidea Leach, 1815 (4 familles)
 super-famille des Noctuoidea Latreille, 1809 (6 familles)
-Kristensen, en 1998, a proposé un arbre phylogénétique qui plaçait, au sein des Macrolepidoptera, le groupe Mimallonoidea/Lasiocampoidea/Bombycoidea dans une position distincte par rapport au clade comprenant Calliduloidea, Papilionoideae et Geometroidea, mais aussi par rapport à celui des Noctuoidea[2] :
-Une étude phylogénétique moléculaire à grande échelle publiée en mars 2013 a examiné l'ensemble de l'ordre des lépidoptères pour les relations familiales[3].
+Kristensen, en 1998, a proposé un arbre phylogénétique qui plaçait, au sein des Macrolepidoptera, le groupe Mimallonoidea/Lasiocampoidea/Bombycoidea dans une position distincte par rapport au clade comprenant Calliduloidea, Papilionoideae et Geometroidea, mais aussi par rapport à celui des Noctuoidea :
+Une étude phylogénétique moléculaire à grande échelle publiée en mars 2013 a examiné l'ensemble de l'ordre des lépidoptères pour les relations familiales.
 Le cladogramme concernant Ditrysia ressemble à ceci :
-L'analyse génétique réalisée par Heikkila et al. (2015)[4] ont plutôt mis en lumière de nouvelles relations entre superfamilles, au point d'aboutir à un cladogramme à partir duquel celui présenté ci-dessous a été obtenu ; la proximité évolutive des Bombycoidea par rapport aux Lasiocampoidea est confirmée, mais les Mimallonoidea sont déplacés vers une position différente :
+L'analyse génétique réalisée par Heikkila et al. (2015) ont plutôt mis en lumière de nouvelles relations entre superfamilles, au point d'aboutir à un cladogramme à partir duquel celui présenté ci-dessous a été obtenu ; la proximité évolutive des Bombycoidea par rapport aux Lasiocampoidea est confirmée, mais les Mimallonoidea sont déplacés vers une position différente :
 </t>
         </is>
       </c>
